--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H2">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I2">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J2">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N2">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q2">
-        <v>65.97664983146134</v>
+        <v>329.7683699447239</v>
       </c>
       <c r="R2">
-        <v>593.7898484831521</v>
+        <v>2967.915329502515</v>
       </c>
       <c r="S2">
-        <v>0.0668170092549293</v>
+        <v>0.1323169303520502</v>
       </c>
       <c r="T2">
-        <v>0.06681700925492931</v>
+        <v>0.1323169303520502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H3">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I3">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J3">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q3">
-        <v>115.7883219990462</v>
+        <v>215.0311312065319</v>
       </c>
       <c r="R3">
-        <v>1042.094897991416</v>
+        <v>1935.280180858787</v>
       </c>
       <c r="S3">
-        <v>0.1172631438908519</v>
+        <v>0.08627952770651243</v>
       </c>
       <c r="T3">
-        <v>0.117263143890852</v>
+        <v>0.08627952770651244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H4">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I4">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J4">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N4">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q4">
-        <v>22.2757013335049</v>
+        <v>48.28965365511856</v>
       </c>
       <c r="R4">
-        <v>200.481312001544</v>
+        <v>434.606882896067</v>
       </c>
       <c r="S4">
-        <v>0.02255943194998494</v>
+        <v>0.01937583868483193</v>
       </c>
       <c r="T4">
-        <v>0.02255943194998494</v>
+        <v>0.01937583868483193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.63904266666668</v>
+        <v>69.89967366666667</v>
       </c>
       <c r="H5">
-        <v>112.917128</v>
+        <v>209.699021</v>
       </c>
       <c r="I5">
-        <v>0.4850220755088103</v>
+        <v>0.6608367681537789</v>
       </c>
       <c r="J5">
-        <v>0.4850220755088103</v>
+        <v>0.660836768153779</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N5">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q5">
-        <v>274.8812659231165</v>
+        <v>1053.888773519141</v>
       </c>
       <c r="R5">
-        <v>2473.931393308048</v>
+        <v>9484.998961672269</v>
       </c>
       <c r="S5">
-        <v>0.2783824904130441</v>
+        <v>0.4228644714103844</v>
       </c>
       <c r="T5">
-        <v>0.2783824904130441</v>
+        <v>0.4228644714103845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J6">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N6">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q6">
-        <v>30.80568563637333</v>
+        <v>82.91116895262222</v>
       </c>
       <c r="R6">
-        <v>277.25117072736</v>
+        <v>746.2005205736</v>
       </c>
       <c r="S6">
-        <v>0.03119806458084912</v>
+        <v>0.03326744578186826</v>
       </c>
       <c r="T6">
-        <v>0.03119806458084912</v>
+        <v>0.03326744578186827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J7">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P7">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q7">
-        <v>54.06365217054221</v>
+        <v>54.06365217054223</v>
       </c>
       <c r="R7">
-        <v>486.5728695348799</v>
+        <v>486.57286953488</v>
       </c>
       <c r="S7">
-        <v>0.05475227306421698</v>
+        <v>0.0216926095732777</v>
       </c>
       <c r="T7">
-        <v>0.05475227306421699</v>
+        <v>0.02169260957327771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J8">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N8">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q8">
-        <v>10.40092599976889</v>
+        <v>12.14110265800889</v>
       </c>
       <c r="R8">
-        <v>93.60833399792</v>
+        <v>109.26992392208</v>
       </c>
       <c r="S8">
-        <v>0.01053340493283121</v>
+        <v>0.004871520683036193</v>
       </c>
       <c r="T8">
-        <v>0.01053340493283121</v>
+        <v>0.004871520683036194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="J9">
-        <v>0.2264655392929762</v>
+        <v>0.1661491941864736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N9">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q9">
-        <v>128.3470119654044</v>
+        <v>264.97128931184</v>
       </c>
       <c r="R9">
-        <v>1155.12310768864</v>
+        <v>2384.74160380656</v>
       </c>
       <c r="S9">
-        <v>0.1299817967150788</v>
+        <v>0.1063176181482915</v>
       </c>
       <c r="T9">
-        <v>0.1299817967150788</v>
+        <v>0.1063176181482915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H10">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I10">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J10">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N10">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q10">
-        <v>5.646360096332</v>
+        <v>19.59149665414222</v>
       </c>
       <c r="R10">
-        <v>50.81724086698799</v>
+        <v>176.32346988728</v>
       </c>
       <c r="S10">
-        <v>0.00571827905443865</v>
+        <v>0.007860931898086775</v>
       </c>
       <c r="T10">
-        <v>0.00571827905443865</v>
+        <v>0.007860931898086778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H11">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I11">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J11">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P11">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q11">
-        <v>9.909302194439332</v>
+        <v>12.77497198495822</v>
       </c>
       <c r="R11">
-        <v>89.18371974995398</v>
+        <v>114.974747864624</v>
       </c>
       <c r="S11">
-        <v>0.01003551920455368</v>
+        <v>0.005125855698854462</v>
       </c>
       <c r="T11">
-        <v>0.01003551920455369</v>
+        <v>0.005125855698854462</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H12">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I12">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J12">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N12">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q12">
-        <v>1.906380991587334</v>
+        <v>2.868882143464889</v>
       </c>
       <c r="R12">
-        <v>17.157428924286</v>
+        <v>25.819939291184</v>
       </c>
       <c r="S12">
-        <v>0.00193066299491871</v>
+        <v>0.001151116096515604</v>
       </c>
       <c r="T12">
-        <v>0.00193066299491871</v>
+        <v>0.001151116096515604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.221194</v>
+        <v>4.152730666666667</v>
       </c>
       <c r="H13">
-        <v>9.663582</v>
+        <v>12.458192</v>
       </c>
       <c r="I13">
-        <v>0.04150876560099526</v>
+        <v>0.0392602278210887</v>
       </c>
       <c r="J13">
-        <v>0.04150876560099526</v>
+        <v>0.03926022782108871</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N13">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q13">
-        <v>23.52466539453467</v>
+        <v>62.611397156432</v>
       </c>
       <c r="R13">
-        <v>211.721988550812</v>
+        <v>563.502574407888</v>
       </c>
       <c r="S13">
-        <v>0.02382430434708422</v>
+        <v>0.02512232412763186</v>
       </c>
       <c r="T13">
-        <v>0.02382430434708422</v>
+        <v>0.02512232412763186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H14">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I14">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J14">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N14">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q14">
-        <v>33.599442458724</v>
+        <v>66.74534161835112</v>
       </c>
       <c r="R14">
-        <v>302.394982128516</v>
+        <v>600.70807456516</v>
       </c>
       <c r="S14">
-        <v>0.03402740611201022</v>
+        <v>0.02678103639751596</v>
       </c>
       <c r="T14">
-        <v>0.03402740611201022</v>
+        <v>0.02678103639751597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H15">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I15">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J15">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P15">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q15">
-        <v>58.96666581794199</v>
+        <v>43.52244672030312</v>
       </c>
       <c r="R15">
-        <v>530.6999923614779</v>
+        <v>391.702020482728</v>
       </c>
       <c r="S15">
-        <v>0.05971773749886512</v>
+        <v>0.017463034894482</v>
       </c>
       <c r="T15">
-        <v>0.05971773749886514</v>
+        <v>0.017463034894482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H16">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I16">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J16">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N16">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q16">
-        <v>11.344182329578</v>
+        <v>9.773858634116445</v>
       </c>
       <c r="R16">
-        <v>102.097640966202</v>
+        <v>87.964727707048</v>
       </c>
       <c r="S16">
-        <v>0.01148867573060021</v>
+        <v>0.003921682884195186</v>
       </c>
       <c r="T16">
-        <v>0.01148867573060021</v>
+        <v>0.003921682884195187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.168158</v>
+        <v>14.14774133333333</v>
       </c>
       <c r="H17">
-        <v>57.504474</v>
+        <v>42.443224</v>
       </c>
       <c r="I17">
-        <v>0.2470036195972183</v>
+        <v>0.1337538098386587</v>
       </c>
       <c r="J17">
-        <v>0.2470036195972184</v>
+        <v>0.1337538098386588</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N17">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q17">
-        <v>139.986757450676</v>
+        <v>213.307802164504</v>
       </c>
       <c r="R17">
-        <v>1259.880817056084</v>
+        <v>1919.770219480536</v>
       </c>
       <c r="S17">
-        <v>0.1417698002557428</v>
+        <v>0.08558805566246558</v>
       </c>
       <c r="T17">
-        <v>0.1417698002557428</v>
+        <v>0.08558805566246561</v>
       </c>
     </row>
   </sheetData>
